--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CB776-FA4B-45D7-8BA9-3B269CB31DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92AAAF-231F-4EBF-9140-B0CE37D44035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2130" windowWidth="19380" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -232,15 +232,6 @@
     <t>횟수</t>
   </si>
   <si>
-    <t>검색 결과가 없을 때까지</t>
-  </si>
-  <si>
-    <t>검색 될 때까지</t>
-  </si>
-  <si>
-    <t>Until the search</t>
-  </si>
-  <si>
     <t>Cancel</t>
   </si>
   <si>
@@ -398,11 +389,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NoSearch</t>
-  </si>
-  <si>
-    <t>Search</t>
+    <t>NoSearchChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchParent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식 이벤트 실행 시 반복</t>
+  </si>
+  <si>
+    <t>부모 이미지 검색 시 종료</t>
+  </si>
+  <si>
+    <t>Repeat when child event runs</t>
+  </si>
+  <si>
+    <t>End when parent image is found</t>
   </si>
 </sst>
 </file>
@@ -732,13 +736,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -782,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,13 +1186,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1196,13 +1200,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,10 +1217,10 @@
         <v>1032</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,10 +1231,10 @@
         <v>1033</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,10 +1245,10 @@
         <v>1034</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,10 +1259,10 @@
         <v>1035</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,10 +1273,10 @@
         <v>1036</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1283,10 +1287,10 @@
         <v>1037</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1297,10 +1301,10 @@
         <v>1038</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,10 +1315,10 @@
         <v>1039</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1325,10 +1329,10 @@
         <v>1040</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,10 +1343,10 @@
         <v>1041</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,10 +1357,10 @@
         <v>1042</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,10 +1371,10 @@
         <v>1043</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,10 +1385,10 @@
         <v>1044</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,10 +1399,10 @@
         <v>1045</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,10 +1413,10 @@
         <v>1046</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,10 +1427,10 @@
         <v>1047</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,10 +1441,10 @@
         <v>1048</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,10 +1455,10 @@
         <v>1049</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,10 +1469,10 @@
         <v>1050</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1479,10 +1483,10 @@
         <v>1051</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,10 +1497,10 @@
         <v>1052</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,10 +1511,10 @@
         <v>1053</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,10 +1525,10 @@
         <v>1054</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,10 +1539,10 @@
         <v>1055</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1549,10 +1553,10 @@
         <v>1056</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1563,10 +1567,10 @@
         <v>1057</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92AAAF-231F-4EBF-9140-B0CE37D44035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009DD00-AFC2-4399-A722-2500B2D60367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2130" windowWidth="19380" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,12 +156,6 @@
     <t>Setting</t>
   </si>
   <si>
-    <t>매크로</t>
-  </si>
-  <si>
-    <t>Macro</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -407,6 +401,14 @@
   </si>
   <si>
     <t>End when parent image is found</t>
+  </si>
+  <si>
+    <t>Diadem 매크로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diadem Macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -736,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1007,10 +1009,10 @@
         <v>1017</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,10 +1023,10 @@
         <v>1018</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1035,10 +1037,10 @@
         <v>1019</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,10 +1051,10 @@
         <v>1020</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,10 +1065,10 @@
         <v>1021</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1077,10 +1079,10 @@
         <v>1022</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,10 +1093,10 @@
         <v>1023</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,10 +1107,10 @@
         <v>1024</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,10 +1121,10 @@
         <v>1025</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,10 +1135,10 @@
         <v>1026</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,10 +1149,10 @@
         <v>1027</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,13 +1160,13 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1175,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1186,13 +1188,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,13 +1202,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>119</v>
-      </c>
-      <c r="D33" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,10 +1219,10 @@
         <v>1032</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1231,10 +1233,10 @@
         <v>1033</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,10 +1247,10 @@
         <v>1034</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,10 +1261,10 @@
         <v>1035</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,10 +1275,10 @@
         <v>1036</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,10 +1289,10 @@
         <v>1037</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1301,10 +1303,10 @@
         <v>1038</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1315,10 +1317,10 @@
         <v>1039</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1329,10 +1331,10 @@
         <v>1040</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1343,10 +1345,10 @@
         <v>1041</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1357,10 +1359,10 @@
         <v>1042</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1371,10 +1373,10 @@
         <v>1043</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1385,10 +1387,10 @@
         <v>1044</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1399,10 +1401,10 @@
         <v>1045</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,10 +1415,10 @@
         <v>1046</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,10 +1429,10 @@
         <v>1047</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,10 +1443,10 @@
         <v>1048</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1455,10 +1457,10 @@
         <v>1049</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,10 +1471,10 @@
         <v>1050</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1483,10 +1485,10 @@
         <v>1051</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1497,10 +1499,10 @@
         <v>1052</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1511,10 +1513,10 @@
         <v>1053</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,10 +1527,10 @@
         <v>1054</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1539,10 +1541,10 @@
         <v>1055</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,10 +1555,10 @@
         <v>1056</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1567,10 +1569,10 @@
         <v>1057</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
